--- a/watsonx-governance-l4-deploy/configuration_lab_files/globalcorp_org_chart.xlsx
+++ b/watsonx-governance-l4-deploy/configuration_lab_files/globalcorp_org_chart.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericmartens/Documents/AI Governance/watsonxgov/l4 deploy/github files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{73DE5952-8E42-694E-8F92-83676BB2AC1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6117EDE3-1CFC-7345-A2F8-BB2DC0D12DAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7000" yWindow="1880" windowWidth="27240" windowHeight="16440" xr2:uid="{D8F6E856-C959-D649-8348-FF9C19CDC5AE}"/>
+    <workbookView xWindow="10280" yWindow="3140" windowWidth="27240" windowHeight="16440" activeTab="1" xr2:uid="{D8F6E856-C959-D649-8348-FF9C19CDC5AE}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Employees" sheetId="1" r:id="rId1"/>
+    <sheet name="Departments" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,16 +37,151 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>Placeholder</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
+  <si>
+    <t>Alejandro</t>
+  </si>
+  <si>
+    <t>Morales</t>
+  </si>
+  <si>
+    <t>Aisha</t>
+  </si>
+  <si>
+    <t>Hassan</t>
+  </si>
+  <si>
+    <t>Hiroshi</t>
+  </si>
+  <si>
+    <t>Tanaka</t>
+  </si>
+  <si>
+    <t>Elena</t>
+  </si>
+  <si>
+    <t>Petrov</t>
+  </si>
+  <si>
+    <t>DeAndre</t>
+  </si>
+  <si>
+    <t>Williams</t>
+  </si>
+  <si>
+    <t>Luca</t>
+  </si>
+  <si>
+    <t>Romano</t>
+  </si>
+  <si>
+    <t>Mei</t>
+  </si>
+  <si>
+    <t>Lin</t>
+  </si>
+  <si>
+    <t>Vikram</t>
+  </si>
+  <si>
+    <t>Sharma</t>
+  </si>
+  <si>
+    <t>Frederik</t>
+  </si>
+  <si>
+    <t>Jensen</t>
+  </si>
+  <si>
+    <t>Fatima</t>
+  </si>
+  <si>
+    <t>Ndiaye</t>
+  </si>
+  <si>
+    <t>Given_Name</t>
+  </si>
+  <si>
+    <t>Surname</t>
+  </si>
+  <si>
+    <t>Email Address</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>amorales@global.com</t>
+  </si>
+  <si>
+    <t>ahassan@global.com</t>
+  </si>
+  <si>
+    <t>htanaka@global.com</t>
+  </si>
+  <si>
+    <t>dwilliams@global.com</t>
+  </si>
+  <si>
+    <t>lromano@global.com</t>
+  </si>
+  <si>
+    <t>mlin@global.com</t>
+  </si>
+  <si>
+    <t>vsharma@global.com</t>
+  </si>
+  <si>
+    <t>fjensen@global.com</t>
+  </si>
+  <si>
+    <t>fndiaye@global.com</t>
+  </si>
+  <si>
+    <t>epetrov@global.com</t>
+  </si>
+  <si>
+    <t>Chief Risk Officer</t>
+  </si>
+  <si>
+    <t>DevOps Specialist</t>
+  </si>
+  <si>
+    <t>AI Engineer</t>
+  </si>
+  <si>
+    <t>Compliance Officer</t>
+  </si>
+  <si>
+    <t>Information Technology</t>
+  </si>
+  <si>
+    <t>Risk and Compliance</t>
+  </si>
+  <si>
+    <t>Human Resources</t>
+  </si>
+  <si>
+    <t>HR Manager</t>
+  </si>
+  <si>
+    <t>Special Projects</t>
+  </si>
+  <si>
+    <t>GlobalCorp</t>
+  </si>
+  <si>
+    <t>Legal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -53,13 +189,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -71,13 +228,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -410,15 +571,231 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{702F4699-EA40-B647-B782-F6F383A749F4}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{ECCAB355-22CD-D944-90DE-69016C39C9D3}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{A9A20AE9-19FE-D34E-9591-E38E95B31B3B}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{99B2BD4E-7A4E-924C-9012-377BB67D8394}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{1B500C0D-66C7-FD49-9965-3EE634DA3699}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{9A7183C8-B4A2-2743-8D96-1698E2925EAA}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{34B1308A-65E8-A046-B58A-790314039120}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{4535E19A-EF15-B34A-9AFE-B9E7604C7AA8}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{2A143494-F031-9241-867D-F15D47267644}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{F5BDB7BB-1104-0145-886B-EF78EBF79C32}"/>
+    <hyperlink ref="C11" r:id="rId10" xr:uid="{A333B6B0-B418-2248-AC75-732BE0FAF9C2}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAC46D31-489F-C34E-9437-3ABFD341B16E}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/watsonx-governance-l4-deploy/configuration_lab_files/globalcorp_org_chart.xlsx
+++ b/watsonx-governance-l4-deploy/configuration_lab_files/globalcorp_org_chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericmartens/Documents/AI Governance/watsonxgov/l4 deploy/github files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6117EDE3-1CFC-7345-A2F8-BB2DC0D12DAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DCC0A39-FBD5-A14F-9608-B166A57BDA36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10280" yWindow="3140" windowWidth="27240" windowHeight="16440" activeTab="1" xr2:uid="{D8F6E856-C959-D649-8348-FF9C19CDC5AE}"/>
+    <workbookView xWindow="40500" yWindow="1400" windowWidth="27240" windowHeight="16440" xr2:uid="{D8F6E856-C959-D649-8348-FF9C19CDC5AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Employees" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
   <si>
     <t>Alejandro</t>
   </si>
@@ -51,12 +51,6 @@
     <t>Hassan</t>
   </si>
   <si>
-    <t>Hiroshi</t>
-  </si>
-  <si>
-    <t>Tanaka</t>
-  </si>
-  <si>
     <t>Elena</t>
   </si>
   <si>
@@ -69,18 +63,6 @@
     <t>Williams</t>
   </si>
   <si>
-    <t>Luca</t>
-  </si>
-  <si>
-    <t>Romano</t>
-  </si>
-  <si>
-    <t>Mei</t>
-  </si>
-  <si>
-    <t>Lin</t>
-  </si>
-  <si>
     <t>Vikram</t>
   </si>
   <si>
@@ -93,12 +75,6 @@
     <t>Jensen</t>
   </si>
   <si>
-    <t>Fatima</t>
-  </si>
-  <si>
-    <t>Ndiaye</t>
-  </si>
-  <si>
     <t>Given_Name</t>
   </si>
   <si>
@@ -120,27 +96,15 @@
     <t>ahassan@global.com</t>
   </si>
   <si>
-    <t>htanaka@global.com</t>
-  </si>
-  <si>
     <t>dwilliams@global.com</t>
   </si>
   <si>
-    <t>lromano@global.com</t>
-  </si>
-  <si>
-    <t>mlin@global.com</t>
-  </si>
-  <si>
     <t>vsharma@global.com</t>
   </si>
   <si>
     <t>fjensen@global.com</t>
   </si>
   <si>
-    <t>fndiaye@global.com</t>
-  </si>
-  <si>
     <t>epetrov@global.com</t>
   </si>
   <si>
@@ -175,6 +139,9 @@
   </si>
   <si>
     <t>Legal</t>
+  </si>
+  <si>
+    <t>General Counsel</t>
   </si>
 </sst>
 </file>
@@ -571,29 +538,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{702F4699-EA40-B647-B782-F6F383A749F4}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="22.83203125" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -604,150 +575,119 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
         <v>25</v>
       </c>
-      <c r="D2" t="s">
-        <v>37</v>
-      </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" t="s">
-        <v>40</v>
-      </c>
+      <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="C10" s="1"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E10">
+    <sortCondition ref="D2:D10"/>
+  </sortState>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{ECCAB355-22CD-D944-90DE-69016C39C9D3}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{A9A20AE9-19FE-D34E-9591-E38E95B31B3B}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{99B2BD4E-7A4E-924C-9012-377BB67D8394}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{1B500C0D-66C7-FD49-9965-3EE634DA3699}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{9A7183C8-B4A2-2743-8D96-1698E2925EAA}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{34B1308A-65E8-A046-B58A-790314039120}"/>
-    <hyperlink ref="C8" r:id="rId7" xr:uid="{4535E19A-EF15-B34A-9AFE-B9E7604C7AA8}"/>
-    <hyperlink ref="C9" r:id="rId8" xr:uid="{2A143494-F031-9241-867D-F15D47267644}"/>
-    <hyperlink ref="C10" r:id="rId9" xr:uid="{F5BDB7BB-1104-0145-886B-EF78EBF79C32}"/>
-    <hyperlink ref="C11" r:id="rId10" xr:uid="{A333B6B0-B418-2248-AC75-732BE0FAF9C2}"/>
+    <hyperlink ref="C7" r:id="rId2" xr:uid="{A9A20AE9-19FE-D34E-9591-E38E95B31B3B}"/>
+    <hyperlink ref="C5" r:id="rId3" xr:uid="{1B500C0D-66C7-FD49-9965-3EE634DA3699}"/>
+    <hyperlink ref="C4" r:id="rId4" xr:uid="{9A7183C8-B4A2-2743-8D96-1698E2925EAA}"/>
+    <hyperlink ref="C3" r:id="rId5" xr:uid="{2A143494-F031-9241-867D-F15D47267644}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -755,47 +695,42 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAC46D31-489F-C34E-9437-3ABFD341B16E}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C7" t="s">
-        <v>43</v>
+      <c r="C6" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/watsonx-governance-l4-deploy/configuration_lab_files/globalcorp_org_chart.xlsx
+++ b/watsonx-governance-l4-deploy/configuration_lab_files/globalcorp_org_chart.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericmartens/Documents/AI Governance/watsonxgov/l4 deploy/github files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DCC0A39-FBD5-A14F-9608-B166A57BDA36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F59955FB-B76D-124A-B1B8-4B76377850C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40500" yWindow="1400" windowWidth="27240" windowHeight="16440" xr2:uid="{D8F6E856-C959-D649-8348-FF9C19CDC5AE}"/>
+    <workbookView xWindow="560" yWindow="1240" windowWidth="27240" windowHeight="16440" xr2:uid="{D8F6E856-C959-D649-8348-FF9C19CDC5AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Employees" sheetId="1" r:id="rId1"/>
     <sheet name="Departments" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -540,8 +540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{702F4699-EA40-B647-B782-F6F383A749F4}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -697,7 +697,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAC46D31-489F-C34E-9437-3ABFD341B16E}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
